--- a/docs/shrcore/shr-core-Device-model.xlsx
+++ b/docs/shrcore/shr-core-Device-model.xlsx
@@ -278,14 +278,14 @@
     <t>Serial number assigned by the manufacturer.</t>
   </si>
   <si>
-    <t>shr-core-Device-model.deviceName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DeviceName-model {[]} {[]}
+    <t>shr-core-Device-model.deviceDesignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DeviceDesignation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The name of the device as given by the manufacturer.</t>
+    <t>A name of the device as given by the manufacturer, along with a type of name.</t>
   </si>
   <si>
     <t>shr-core-Device-model.type</t>
@@ -532,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
